--- a/modelagem_biblioteca.xlsx
+++ b/modelagem_biblioteca.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44931066895.EDUC501\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA07A5-ECC8-4DF4-AA8A-86F30E82AE9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +24,182 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+  <si>
+    <t>Livros</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>autor</t>
+  </si>
+  <si>
+    <t>Autores</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>data nascimento</t>
+  </si>
+  <si>
+    <t>biografia</t>
+  </si>
+  <si>
+    <t>Empréstimos</t>
+  </si>
+  <si>
+    <t>data de retorno</t>
+  </si>
+  <si>
+    <t>id usuario</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>data registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membro </t>
+  </si>
+  <si>
+    <t>nivel de associação</t>
+  </si>
+  <si>
+    <t>O Jardim das Palavras</t>
+  </si>
+  <si>
+    <t>978-85-7867-432-1</t>
+  </si>
+  <si>
+    <t>Uma história emocionante sobre amor, perda e redescoberta ambientada em um mágico jardim de outono, onde as palavras ganham vida.</t>
+  </si>
+  <si>
+    <t>Sofia Silva</t>
+  </si>
+  <si>
+    <t>O Mistério da Casa na Colina</t>
+  </si>
+  <si>
+    <t>Um romance de suspense que se desenrola em uma antiga casa abandonada, onde segredos sombrios do passado emergem quando um grupo de amigos decide explorá-la.</t>
+  </si>
+  <si>
+    <t>978-65-987654-0-3</t>
+  </si>
+  <si>
+    <t>Mistério/Suspense</t>
+  </si>
+  <si>
+    <t>Lucas Mendes</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>sarah@gmail.com</t>
+  </si>
+  <si>
+    <t>carlos@gmail.com</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>julia@gmail.com</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia Silva é uma escritora contemporânea conhecida por suas narrativas emotivas e envolventes. Nascida em Lisboa, Portugal, ela sempre teve uma paixão pela escrita desde jovem. Após completar seus estudos em Literatura Inglesa, começou a dedicar-se inteiramente à escrita. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Mendes é um autor de suspense e mistério, cujas histórias mantêm os leitores à beira de seus assentos. Nascido e criado no Rio de Janeiro, Brasil, Mendes sempre teve fascínio por histórias que mantêm o público adivinhando até o fim. Antes de se dedicar integralmente à escrita, ele trabalhou como jornalista investigativo, o que influenciou sua escrita ao trazer uma perspectiva realista e detalhada para seus enredos. </t>
+  </si>
+  <si>
+    <t>data de inicio</t>
+  </si>
+  <si>
+    <t>29/02/2023</t>
+  </si>
+  <si>
+    <t>id livro</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>ficção</t>
+  </si>
+  <si>
+    <t>id_categoria</t>
+  </si>
+  <si>
+    <t>nome_categoria</t>
+  </si>
+  <si>
+    <t>misterio</t>
+  </si>
+  <si>
+    <t>suspense</t>
+  </si>
+  <si>
+    <t>Associação</t>
+  </si>
+  <si>
+    <t>id_associacao</t>
+  </si>
+  <si>
+    <t>nivel</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +207,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +272,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="40% - Ênfase5" xfId="2" builtinId="47"/>
+    <cellStyle name="Ênfase5" xfId="1" builtinId="45"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +592,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="17" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>31814</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5">
+        <v>25827</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45014</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="5">
+        <v>41579</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5">
+        <v>40299</v>
+      </c>
+      <c r="D11" s="5">
+        <v>40330</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5">
+        <v>43022</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="5">
+        <v>36652</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="D13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{D00A5556-20AF-4EBB-9FAB-F92B38E77714}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{A655A130-EB60-4EED-ADD4-026CCF83A206}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{0383B361-6915-40CA-8D49-12B6D4ECBF64}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>